--- a/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-08_beg.xlsx
+++ b/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-08_beg.xlsx
@@ -36,7 +36,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Returning to the present, Reunion seems to have re-organized and is moving again. A woman named "Nine" has decided to leave Lungmen, and Ch'en leads the black raincoat squad to the Yeti Squadron.
+    <t xml:space="preserve">Returning to the present, Reunion seems to have re-organized and is moving again. A woman named 'Nine' has decided to leave Lungmen, and Ch'en leads the black raincoat squad to the Yeti Squadron.
 </t>
   </si>
   <si>
